--- a/teaching/traditional_assets/database/data/bangladesh/bangladesh_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/bangladesh/bangladesh_insurance_prop_cas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ28"/>
+  <dimension ref="A1:AQ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0383</v>
+        <v>0.0337</v>
       </c>
       <c r="E2">
-        <v>0.0238</v>
+        <v>0.05605</v>
       </c>
       <c r="G2">
-        <v>0.2426640230713771</v>
+        <v>0.2328614905513483</v>
       </c>
       <c r="H2">
-        <v>0.2426640230713771</v>
+        <v>0.2328614905513483</v>
       </c>
       <c r="I2">
-        <v>0.2256678313105452</v>
+        <v>0.2780593106376955</v>
       </c>
       <c r="J2">
-        <v>0.1689255490891624</v>
+        <v>0.2102196281659491</v>
       </c>
       <c r="K2">
-        <v>26.947</v>
+        <v>26.107</v>
       </c>
       <c r="L2">
-        <v>0.161902186974285</v>
+        <v>0.1847759926392526</v>
       </c>
       <c r="M2">
-        <v>11.8232</v>
+        <v>10.829</v>
       </c>
       <c r="N2">
-        <v>0.02852125247262025</v>
+        <v>0.01715892885438124</v>
       </c>
       <c r="O2">
-        <v>0.4387575611385312</v>
+        <v>0.4147929674033785</v>
       </c>
       <c r="P2">
-        <v>11.8232</v>
+        <v>10.829</v>
       </c>
       <c r="Q2">
-        <v>0.02852125247262025</v>
+        <v>0.01715892885438124</v>
       </c>
       <c r="R2">
-        <v>0.4387575611385312</v>
+        <v>0.4147929674033785</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>133.444</v>
+        <v>142.406</v>
       </c>
       <c r="V2">
-        <v>0.3219086216046702</v>
+        <v>0.2256472825225796</v>
       </c>
       <c r="W2">
-        <v>0.08928502428898874</v>
+        <v>0.08787621359223301</v>
       </c>
       <c r="X2">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y2">
-        <v>0.02612717055633863</v>
+        <v>0.02485007661725319</v>
       </c>
       <c r="Z2">
-        <v>0.7972706527203061</v>
+        <v>0.6863135601453358</v>
       </c>
       <c r="AA2">
-        <v>0.1391752042866953</v>
+        <v>0.2055355387576654</v>
       </c>
       <c r="AB2">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC2">
-        <v>0.07601735055404515</v>
+        <v>0.1424658067476197</v>
       </c>
       <c r="AD2">
-        <v>24.236</v>
+        <v>3.94</v>
       </c>
       <c r="AE2">
-        <v>0.1842307833642692</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>24.42023078336427</v>
+        <v>3.94</v>
       </c>
       <c r="AG2">
-        <v>-109.0237692166357</v>
+        <v>-138.466</v>
       </c>
       <c r="AH2">
-        <v>0.05563198912070954</v>
+        <v>0.006204333585285966</v>
       </c>
       <c r="AI2">
-        <v>0.07126452370122199</v>
+        <v>0.01275493687277436</v>
       </c>
       <c r="AJ2">
-        <v>-0.3568509893470844</v>
+        <v>-0.2810727639586387</v>
       </c>
       <c r="AK2">
-        <v>-0.5210807880466978</v>
+        <v>-0.8316575972707727</v>
       </c>
       <c r="AL2">
-        <v>0.672</v>
+        <v>0.658</v>
       </c>
       <c r="AM2">
-        <v>0.672</v>
+        <v>0.658</v>
       </c>
       <c r="AN2">
-        <v>0.6382261547374519</v>
+        <v>0.09294864233645521</v>
       </c>
       <c r="AO2">
-        <v>55.79910714285714</v>
+        <v>59.70668693009118</v>
       </c>
       <c r="AP2">
-        <v>-2.87101093423489</v>
+        <v>-3.266555002477058</v>
       </c>
       <c r="AQ2">
-        <v>55.79910714285714</v>
+        <v>59.70668693009118</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eastern Insurance Company Limited (DSE:EASTERNINS)</t>
+          <t>Crystal Insurance Company Limited (DSE:CRYSTALINS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,47 +724,41 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0345</v>
-      </c>
-      <c r="E3">
-        <v>0.09660000000000001</v>
-      </c>
       <c r="G3">
-        <v>0.5493273542600897</v>
+        <v>0.8756756756756757</v>
       </c>
       <c r="H3">
-        <v>0.5493273542600897</v>
+        <v>0.8756756756756757</v>
       </c>
       <c r="I3">
-        <v>0.5381165919282511</v>
+        <v>0.7351351351351352</v>
       </c>
       <c r="J3">
-        <v>0.4213338421906307</v>
+        <v>0.7351351351351352</v>
       </c>
       <c r="K3">
-        <v>1.84</v>
+        <v>1.31</v>
       </c>
       <c r="L3">
-        <v>0.4125560538116592</v>
+        <v>0.7081081081081081</v>
       </c>
       <c r="M3">
-        <v>0.9409999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="N3">
-        <v>0.04776649746192893</v>
+        <v>0.03123655913978494</v>
       </c>
       <c r="O3">
-        <v>0.5114130434782608</v>
+        <v>0.4435114503816793</v>
       </c>
       <c r="P3">
-        <v>0.9409999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="Q3">
-        <v>0.04776649746192893</v>
+        <v>0.03123655913978494</v>
       </c>
       <c r="R3">
-        <v>0.5114130434782608</v>
+        <v>0.4435114503816793</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,16 +767,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.613</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.03295698924731182</v>
       </c>
       <c r="X3">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AB3">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -794,13 +788,19 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-0.613</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-0.03408016901095235</v>
+      </c>
+      <c r="AK3">
+        <v>-0.1007064235255462</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-0.3424581005586592</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>City General Insurance Company Limited (DSE:CITYGENINS)</t>
+          <t>Agrani Insurance Company Limited (DSE:AGRANINS)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -832,46 +832,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0757</v>
+        <v>0.0337</v>
       </c>
       <c r="E4">
-        <v>0.0161</v>
+        <v>-0.00127</v>
       </c>
       <c r="G4">
-        <v>0.3258928571428571</v>
+        <v>0.2804964539007093</v>
       </c>
       <c r="H4">
-        <v>0.3258928571428571</v>
+        <v>0.2804964539007093</v>
       </c>
       <c r="I4">
-        <v>0.3102678571428571</v>
+        <v>0.2453900709219858</v>
       </c>
       <c r="J4">
-        <v>0.2408049040511727</v>
+        <v>0.2032486149733773</v>
       </c>
       <c r="K4">
-        <v>1.04</v>
+        <v>0.545</v>
       </c>
       <c r="L4">
-        <v>0.2321428571428571</v>
+        <v>0.1932624113475178</v>
       </c>
       <c r="M4">
-        <v>0.4092</v>
+        <v>0.3624</v>
       </c>
       <c r="N4">
-        <v>0.02260773480662983</v>
+        <v>0.02853543307086614</v>
       </c>
       <c r="O4">
-        <v>0.3934615384615385</v>
+        <v>0.6649541284403669</v>
       </c>
       <c r="P4">
-        <v>0.4092</v>
+        <v>0.3624</v>
       </c>
       <c r="Q4">
-        <v>0.02260773480662983</v>
+        <v>0.02853543307086614</v>
       </c>
       <c r="R4">
-        <v>0.3934615384615385</v>
+        <v>0.6649541284403669</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AB4">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -910,22 +910,22 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.025</v>
+        <v>0.049</v>
       </c>
       <c r="AM4">
-        <v>0.025</v>
+        <v>0.049</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>55.59999999999999</v>
+        <v>14.12244897959184</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>55.59999999999999</v>
+        <v>14.12244897959184</v>
       </c>
     </row>
     <row r="5">
@@ -936,7 +936,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agrani Insurance Company Limited (DSE:AGRANINS)</t>
+          <t>Takaful Islami Insurance Limited (DSE:TAKAFULINS)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -945,46 +945,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0579</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="E5">
-        <v>0.0238</v>
+        <v>0.101</v>
       </c>
       <c r="G5">
-        <v>0.4215686274509804</v>
+        <v>0.2408602150537635</v>
       </c>
       <c r="H5">
-        <v>0.4215686274509804</v>
+        <v>0.2408602150537635</v>
       </c>
       <c r="I5">
-        <v>0.3856209150326797</v>
+        <v>0.264516129032258</v>
       </c>
       <c r="J5">
-        <v>0.2946539299480476</v>
+        <v>0.1981702802749868</v>
       </c>
       <c r="K5">
-        <v>0.596</v>
+        <v>0.914</v>
       </c>
       <c r="L5">
-        <v>0.1947712418300654</v>
+        <v>0.1965591397849462</v>
       </c>
       <c r="M5">
-        <v>0.144</v>
+        <v>0.5112</v>
       </c>
       <c r="N5">
-        <v>0.01555075593952484</v>
+        <v>0.02138912133891213</v>
       </c>
       <c r="O5">
-        <v>0.2416107382550335</v>
+        <v>0.5592997811816193</v>
       </c>
       <c r="P5">
-        <v>0.144</v>
+        <v>0.5112</v>
       </c>
       <c r="Q5">
-        <v>0.01555075593952484</v>
+        <v>0.02138912133891213</v>
       </c>
       <c r="R5">
-        <v>0.2416107382550335</v>
+        <v>0.5592997811816193</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -993,16 +993,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>8.83</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.3694560669456067</v>
+      </c>
+      <c r="W5">
+        <v>0.1097238895558223</v>
       </c>
       <c r="X5">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
+      </c>
+      <c r="Y5">
+        <v>0.04669775258084252</v>
+      </c>
+      <c r="Z5">
+        <v>7.265625000000004</v>
+      </c>
+      <c r="AA5">
+        <v>1.439830942622951</v>
       </c>
       <c r="AB5">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
+      </c>
+      <c r="AC5">
+        <v>1.376804805647972</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1014,31 +1029,31 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>-8.83</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>-0.5859323158593233</v>
+      </c>
+      <c r="AK5">
+        <v>-23.23684210526311</v>
       </c>
       <c r="AL5">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
-      <c r="AO5">
-        <v>40.68965517241379</v>
-      </c>
       <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>40.68965517241379</v>
+        <v>-6.952755905511811</v>
       </c>
     </row>
     <row r="6">
@@ -1049,7 +1064,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mercantile Insurance Company Limited (DSE:MERCINS)</t>
+          <t>Paramount Insurance Company Limited (DSE:PARAMOUNT)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1057,41 +1072,47 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.286</v>
+      </c>
+      <c r="E6">
+        <v>0.308</v>
+      </c>
       <c r="G6">
-        <v>0.2259365994236311</v>
+        <v>0.1585714285714286</v>
       </c>
       <c r="H6">
-        <v>0.2259365994236311</v>
+        <v>0.1585714285714286</v>
       </c>
       <c r="I6">
-        <v>0.2080691642651297</v>
+        <v>0.5023809523809524</v>
       </c>
       <c r="J6">
-        <v>0.1669798755236965</v>
+        <v>0.3471428571428571</v>
       </c>
       <c r="K6">
-        <v>0.573</v>
+        <v>1.45</v>
       </c>
       <c r="L6">
-        <v>0.1651296829971181</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="M6">
-        <v>0.51</v>
+        <v>0.078</v>
       </c>
       <c r="N6">
-        <v>0.03072289156626506</v>
+        <v>0.001494252873563218</v>
       </c>
       <c r="O6">
-        <v>0.8900523560209425</v>
+        <v>0.05379310344827586</v>
       </c>
       <c r="P6">
-        <v>0.51</v>
+        <v>0.078</v>
       </c>
       <c r="Q6">
-        <v>0.03072289156626506</v>
+        <v>0.001494252873563218</v>
       </c>
       <c r="R6">
-        <v>0.8900523560209425</v>
+        <v>0.05379310344827586</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1100,16 +1121,31 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.1080459770114942</v>
+      </c>
+      <c r="W6">
+        <v>0.2670349907918969</v>
       </c>
       <c r="X6">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
+      </c>
+      <c r="Y6">
+        <v>0.204008853816917</v>
+      </c>
+      <c r="Z6">
+        <v>3.65217391304348</v>
+      </c>
+      <c r="AA6">
+        <v>1.267826086956522</v>
       </c>
       <c r="AB6">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
+      </c>
+      <c r="AC6">
+        <v>1.204799949981542</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1121,13 +1157,19 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>-5.64</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>-0.1211340206185567</v>
+      </c>
+      <c r="AK6">
+        <v>-1.293577981651376</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1139,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>-2.623255813953489</v>
       </c>
     </row>
     <row r="7">
@@ -1150,7 +1192,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Takaful Islami Insurance Limited (DSE:TAKAFULINS)</t>
+          <t>Asia Pacific General Insurance Company Limited (DSE:ASIAPACINS)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1159,46 +1201,46 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.06309999999999999</v>
+        <v>0.09179999999999999</v>
       </c>
       <c r="E7">
-        <v>0.0552</v>
+        <v>0.0416</v>
       </c>
       <c r="G7">
-        <v>0.2263819095477387</v>
+        <v>0.2844827586206897</v>
       </c>
       <c r="H7">
-        <v>0.2263819095477387</v>
+        <v>0.2844827586206897</v>
       </c>
       <c r="I7">
-        <v>0.1959798994974875</v>
+        <v>0.271551724137931</v>
       </c>
       <c r="J7">
-        <v>0.1620306255687888</v>
+        <v>0.1969827586206897</v>
       </c>
       <c r="K7">
-        <v>0.63</v>
+        <v>0.909</v>
       </c>
       <c r="L7">
-        <v>0.1582914572864322</v>
+        <v>0.1959051724137931</v>
       </c>
       <c r="M7">
-        <v>0.238</v>
+        <v>0.529</v>
       </c>
       <c r="N7">
-        <v>0.01712230215827338</v>
+        <v>0.01414438502673797</v>
       </c>
       <c r="O7">
-        <v>0.3777777777777778</v>
+        <v>0.581958195819582</v>
       </c>
       <c r="P7">
-        <v>0.238</v>
+        <v>0.529</v>
       </c>
       <c r="Q7">
-        <v>0.01712230215827338</v>
+        <v>0.01414438502673797</v>
       </c>
       <c r="R7">
-        <v>0.3777777777777778</v>
+        <v>0.581958195819582</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1207,31 +1249,31 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>7.69</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="V7">
-        <v>0.5532374100719425</v>
+        <v>0.2310160427807487</v>
       </c>
       <c r="W7">
-        <v>0.07875</v>
+        <v>0.08825242718446602</v>
       </c>
       <c r="X7">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y7">
-        <v>0.01559214626734989</v>
+        <v>0.0252262902094862</v>
       </c>
       <c r="Z7">
-        <v>5.452054794520545</v>
+        <v>1.833992094861659</v>
       </c>
       <c r="AA7">
-        <v>0.8833998489914784</v>
+        <v>0.3612648221343873</v>
       </c>
       <c r="AB7">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC7">
-        <v>0.8202419952588282</v>
+        <v>0.2982386851594074</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1243,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>-7.69</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1252,22 +1294,28 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>-1.238325281803543</v>
+        <v>-0.3004172461752435</v>
       </c>
       <c r="AK7">
-        <v>-12.01562500000001</v>
+        <v>-5.204819277108434</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
+      <c r="AO7">
+        <v>630</v>
+      </c>
       <c r="AP7">
-        <v>-9.242788461538462</v>
+        <v>-6.352941176470588</v>
+      </c>
+      <c r="AQ7">
+        <v>630</v>
       </c>
     </row>
     <row r="8">
@@ -1278,7 +1326,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Provati Insurance Company Limited (DSE:PROVATIINS)</t>
+          <t>Continental Insurance Limited (DSE:CONTININS)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1287,46 +1335,46 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.117</v>
+        <v>0.0245</v>
       </c>
       <c r="E8">
-        <v>0.077</v>
+        <v>-0.07480000000000001</v>
       </c>
       <c r="G8">
-        <v>0.1509584664536741</v>
+        <v>0.16</v>
       </c>
       <c r="H8">
-        <v>0.1509584664536741</v>
+        <v>0.16</v>
       </c>
       <c r="I8">
-        <v>0.1362619808306709</v>
+        <v>0.1822448979591837</v>
       </c>
       <c r="J8">
-        <v>0.103826223433405</v>
+        <v>0.1229965566473503</v>
       </c>
       <c r="K8">
-        <v>0.654</v>
+        <v>0.492</v>
       </c>
       <c r="L8">
-        <v>0.1044728434504792</v>
+        <v>0.1004081632653061</v>
       </c>
       <c r="M8">
-        <v>0.351</v>
+        <v>0.19</v>
       </c>
       <c r="N8">
-        <v>0.03637305699481865</v>
+        <v>0.00871559633027523</v>
       </c>
       <c r="O8">
-        <v>0.5366972477064219</v>
+        <v>0.3861788617886179</v>
       </c>
       <c r="P8">
-        <v>0.351</v>
+        <v>0.19</v>
       </c>
       <c r="Q8">
-        <v>0.03637305699481865</v>
+        <v>0.00871559633027523</v>
       </c>
       <c r="R8">
-        <v>0.5366972477064219</v>
+        <v>0.3861788617886179</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1335,31 +1383,31 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>4.99</v>
+        <v>5.4</v>
       </c>
       <c r="V8">
-        <v>0.5170984455958549</v>
+        <v>0.2477064220183486</v>
       </c>
       <c r="W8">
-        <v>0.1072131147540984</v>
+        <v>0.05484949832775919</v>
       </c>
       <c r="X8">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y8">
-        <v>0.04405526102144826</v>
+        <v>-0.008176638647220624</v>
       </c>
       <c r="Z8">
-        <v>7.364705882352944</v>
+        <v>2.437810945273631</v>
       </c>
       <c r="AA8">
-        <v>0.764649598462489</v>
+        <v>0.2998423520258787</v>
       </c>
       <c r="AB8">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC8">
-        <v>0.7014917447298389</v>
+        <v>0.2368162150508989</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1371,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>-4.99</v>
+        <v>-5.4</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1380,22 +1428,28 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-1.070815450643777</v>
+        <v>-0.3292682926829269</v>
       </c>
       <c r="AK8">
-        <v>-3.696296296296298</v>
+        <v>-1.388174807197944</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="AN8">
         <v>0</v>
       </c>
+      <c r="AO8">
+        <v>5.798701298701299</v>
+      </c>
       <c r="AP8">
-        <v>-5.16028955532575</v>
+        <v>-5.498981670061101</v>
+      </c>
+      <c r="AQ8">
+        <v>5.798701298701299</v>
       </c>
     </row>
     <row r="9">
@@ -1406,7 +1460,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Karnaphuli Insurance Company Limited (DSE:KARNAPHULI)</t>
+          <t>Janata Insurance Company Limited (DSE:JANATAINS)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1415,46 +1469,46 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0242</v>
+        <v>-0.0336</v>
       </c>
       <c r="E9">
-        <v>-0.011</v>
+        <v>0.402</v>
       </c>
       <c r="G9">
-        <v>0.279585798816568</v>
+        <v>0.4129554655870445</v>
       </c>
       <c r="H9">
-        <v>0.279585798816568</v>
+        <v>0.4129554655870445</v>
       </c>
       <c r="I9">
-        <v>0.26301775147929</v>
+        <v>0.4979757085020243</v>
       </c>
       <c r="J9">
-        <v>0.1957341406357507</v>
+        <v>0.3118900490091626</v>
       </c>
       <c r="K9">
-        <v>0.672</v>
+        <v>0.718</v>
       </c>
       <c r="L9">
-        <v>0.1988165680473373</v>
+        <v>0.2906882591093117</v>
       </c>
       <c r="M9">
-        <v>0.303</v>
+        <v>0.5075999999999999</v>
       </c>
       <c r="N9">
-        <v>0.0258974358974359</v>
+        <v>0.02563636363636363</v>
       </c>
       <c r="O9">
-        <v>0.4508928571428571</v>
+        <v>0.7069637883008356</v>
       </c>
       <c r="P9">
-        <v>0.303</v>
+        <v>0.5075999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.0258974358974359</v>
+        <v>0.02563636363636363</v>
       </c>
       <c r="R9">
-        <v>0.4508928571428571</v>
+        <v>0.7069637883008356</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1463,31 +1517,31 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>7.02</v>
+        <v>5.31</v>
       </c>
       <c r="V9">
-        <v>0.6</v>
+        <v>0.2681818181818181</v>
       </c>
       <c r="W9">
-        <v>0.07133757961783439</v>
+        <v>0.1033093525179856</v>
       </c>
       <c r="X9">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y9">
-        <v>0.008179725885184286</v>
+        <v>0.04028321554300579</v>
       </c>
       <c r="Z9">
-        <v>1.857142857142857</v>
+        <v>0.8430034129692832</v>
       </c>
       <c r="AA9">
-        <v>0.3635062611806797</v>
+        <v>0.262924375785881</v>
       </c>
       <c r="AB9">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC9">
-        <v>0.3003484074480297</v>
+        <v>0.1998982388109012</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1499,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>-7.02</v>
+        <v>-5.31</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1508,22 +1562,28 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>-1.5</v>
+        <v>-0.3664596273291925</v>
       </c>
       <c r="AK9">
-        <v>-2.808</v>
+        <v>-2.278969957081545</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="AN9">
         <v>0</v>
       </c>
+      <c r="AO9">
+        <v>26.73913043478261</v>
+      </c>
       <c r="AP9">
-        <v>-7.397260273972603</v>
+        <v>-4.053435114503817</v>
+      </c>
+      <c r="AQ9">
+        <v>26.73913043478261</v>
       </c>
     </row>
     <row r="10">
@@ -1534,7 +1594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Asia Pacific General Insurance Company Limited (DSE:ASIAPACINS)</t>
+          <t>Karnaphuli Insurance Company Limited (DSE:KARNAPHULI)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1543,46 +1603,46 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.146</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="E10">
-        <v>0.0864</v>
+        <v>0.07629999999999999</v>
       </c>
       <c r="G10">
-        <v>0.2467532467532468</v>
+        <v>0.230690537084399</v>
       </c>
       <c r="H10">
-        <v>0.2467532467532468</v>
+        <v>0.230690537084399</v>
       </c>
       <c r="I10">
-        <v>0.2782931354359926</v>
+        <v>0.2240409207161125</v>
       </c>
       <c r="J10">
-        <v>0.1820187534473249</v>
+        <v>0.1638744543753897</v>
       </c>
       <c r="K10">
-        <v>0.97</v>
+        <v>0.62</v>
       </c>
       <c r="L10">
-        <v>0.1799628942486085</v>
+        <v>0.1585677749360614</v>
       </c>
       <c r="M10">
-        <v>0.519</v>
+        <v>0.529</v>
       </c>
       <c r="N10">
-        <v>0.04185483870967742</v>
+        <v>0.02955307262569833</v>
       </c>
       <c r="O10">
-        <v>0.5350515463917526</v>
+        <v>0.8532258064516129</v>
       </c>
       <c r="P10">
-        <v>0.519</v>
+        <v>0.529</v>
       </c>
       <c r="Q10">
-        <v>0.04185483870967742</v>
+        <v>0.02955307262569833</v>
       </c>
       <c r="R10">
-        <v>0.5350515463917526</v>
+        <v>0.8532258064516129</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1591,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>7.77</v>
+        <v>7.7</v>
       </c>
       <c r="V10">
-        <v>0.6266129032258064</v>
+        <v>0.4301675977653632</v>
       </c>
       <c r="W10">
-        <v>0.0982776089159068</v>
+        <v>0.06512605042016807</v>
       </c>
       <c r="X10">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y10">
-        <v>0.03511975518325669</v>
+        <v>0.002099913445188256</v>
       </c>
       <c r="Z10">
-        <v>1.711111111111111</v>
+        <v>1.564</v>
       </c>
       <c r="AA10">
-        <v>0.3114543114543115</v>
+        <v>0.2562996466431095</v>
       </c>
       <c r="AB10">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC10">
-        <v>0.2482964577216614</v>
+        <v>0.1932735096681297</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1627,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>-7.77</v>
+        <v>-7.7</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1636,22 +1696,28 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>-1.678185745140388</v>
+        <v>-0.7549019607843138</v>
       </c>
       <c r="AK10">
-        <v>-3.071146245059287</v>
+        <v>-4.095744680851064</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="AN10">
         <v>0</v>
       </c>
+      <c r="AO10">
+        <v>32.44444444444444</v>
+      </c>
       <c r="AP10">
-        <v>-5.045454545454545</v>
+        <v>-8.270676691729323</v>
+      </c>
+      <c r="AQ10">
+        <v>32.44444444444444</v>
       </c>
     </row>
     <row r="11">
@@ -1662,7 +1728,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dhaka Insurance Limited (DSE:DHAKAINS)</t>
+          <t>Pioneer Insurance Company Limited (DSE:PIONEERINS)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1671,46 +1737,46 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.00745</v>
+        <v>0.0658</v>
       </c>
       <c r="E11">
-        <v>-0.00166</v>
+        <v>0.253</v>
       </c>
       <c r="G11">
-        <v>0.4088397790055249</v>
+        <v>0.2479820627802691</v>
       </c>
       <c r="H11">
-        <v>0.4088397790055249</v>
+        <v>0.2479820627802691</v>
       </c>
       <c r="I11">
-        <v>0.4585635359116021</v>
+        <v>0.389237668161435</v>
       </c>
       <c r="J11">
-        <v>0.2731808381619727</v>
+        <v>0.2771227532903131</v>
       </c>
       <c r="K11">
-        <v>0.975</v>
+        <v>6.13</v>
       </c>
       <c r="L11">
-        <v>0.2693370165745856</v>
+        <v>0.2748878923766816</v>
       </c>
       <c r="M11">
-        <v>0.705</v>
+        <v>1.65</v>
       </c>
       <c r="N11">
-        <v>0.0440625</v>
+        <v>0.02652733118971061</v>
       </c>
       <c r="O11">
-        <v>0.7230769230769231</v>
+        <v>0.2691680261011419</v>
       </c>
       <c r="P11">
-        <v>0.705</v>
+        <v>1.65</v>
       </c>
       <c r="Q11">
-        <v>0.0440625</v>
+        <v>0.02652733118971061</v>
       </c>
       <c r="R11">
-        <v>0.7230769230769231</v>
+        <v>0.2691680261011419</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1719,31 +1785,31 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>7.51</v>
+        <v>16.4</v>
       </c>
       <c r="V11">
-        <v>0.469375</v>
+        <v>0.2636655948553054</v>
       </c>
       <c r="W11">
-        <v>0.08705357142857144</v>
+        <v>0.1567774936061381</v>
       </c>
       <c r="X11">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y11">
-        <v>0.02389571769592133</v>
+        <v>0.09375135663115829</v>
       </c>
       <c r="Z11">
-        <v>1.090361445783133</v>
+        <v>0.9102040816326531</v>
       </c>
       <c r="AA11">
-        <v>0.2978658536585366</v>
+        <v>0.2522382611581218</v>
       </c>
       <c r="AB11">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC11">
-        <v>0.2347079999258865</v>
+        <v>0.1892121241831419</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -1755,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>-7.51</v>
+        <v>-16.4</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1764,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>-0.8845700824499411</v>
+        <v>-0.3580786026200873</v>
       </c>
       <c r="AK11">
-        <v>-1.981530343007915</v>
+        <v>-0.7068965517241378</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1779,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>-4.443786982248521</v>
+        <v>-1.826280623608018</v>
       </c>
     </row>
     <row r="12">
@@ -1790,7 +1856,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Paramount Insurance Company Limited (DSE:PARAMOUNT)</t>
+          <t>Republic Insurance Company Limited (DSE:REPUBLIC)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1798,101 +1864,98 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D12">
-        <v>0.112</v>
-      </c>
-      <c r="E12">
-        <v>0.0391</v>
-      </c>
       <c r="G12">
-        <v>0.1313636363636363</v>
+        <v>0.2630098452883263</v>
       </c>
       <c r="H12">
-        <v>0.1313636363636363</v>
+        <v>0.2630098452883263</v>
       </c>
       <c r="I12">
-        <v>0.2063636363636364</v>
+        <v>0.2855133614627285</v>
       </c>
       <c r="J12">
-        <v>0.1628231768231768</v>
+        <v>0.2115016454330698</v>
       </c>
       <c r="K12">
-        <v>0.359</v>
+        <v>1.52</v>
       </c>
       <c r="L12">
-        <v>0.1631818181818182</v>
+        <v>0.2137834036568214</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>0.186</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.006118421052631579</v>
       </c>
       <c r="O12">
-        <v>-0</v>
+        <v>0.1223684210526316</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>0.186</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.006118421052631579</v>
       </c>
       <c r="R12">
-        <v>-0</v>
+        <v>0.1223684210526316</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
-        <v>4.28</v>
+        <v>1.03</v>
       </c>
       <c r="V12">
-        <v>0.2675</v>
+        <v>0.03388157894736842</v>
       </c>
       <c r="W12">
-        <v>0.0695736434108527</v>
+        <v>0.2005277044854881</v>
       </c>
       <c r="X12">
-        <v>0.06315785373265011</v>
+        <v>0.06319844942086997</v>
       </c>
       <c r="Y12">
-        <v>0.006415789678202596</v>
+        <v>0.1373292550646182</v>
       </c>
       <c r="Z12">
-        <v>1.571428571428571</v>
+        <v>0.9955194623354803</v>
       </c>
       <c r="AA12">
-        <v>0.2558649921507064</v>
+        <v>0.210554004344599</v>
       </c>
       <c r="AB12">
-        <v>0.06315785373265011</v>
+        <v>0.06311332704511161</v>
       </c>
       <c r="AC12">
-        <v>0.1927071384180563</v>
+        <v>0.1474406772994874</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AG12">
-        <v>-4.28</v>
+        <v>-0.9</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.004258106780216181</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.01527614571092832</v>
       </c>
       <c r="AJ12">
-        <v>-0.3651877133105803</v>
+        <v>-0.03050847457627119</v>
       </c>
       <c r="AK12">
-        <v>-3.721739130434785</v>
+        <v>-0.1203208556149733</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1901,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="AP12">
-        <v>-8.525896414342631</v>
+        <v>-0.4166666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -1915,7 +1978,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Central Insurance Company Limited (DSE:CENTRALINS)</t>
+          <t>Rupali Insurance Company Limited (DSE:RUPALIINS)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1924,46 +1987,46 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0139</v>
+        <v>-0.00043</v>
       </c>
       <c r="E13">
-        <v>0.0224</v>
+        <v>0.0179</v>
       </c>
       <c r="G13">
-        <v>0.3904109589041096</v>
+        <v>0.3048128342245989</v>
       </c>
       <c r="H13">
-        <v>0.3904109589041096</v>
+        <v>0.3048128342245989</v>
       </c>
       <c r="I13">
-        <v>0.3789954337899543</v>
+        <v>0.2780748663101604</v>
       </c>
       <c r="J13">
-        <v>0.3029594748858447</v>
+        <v>0.2144567627494457</v>
       </c>
       <c r="K13">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="L13">
-        <v>0.2922374429223745</v>
+        <v>0.2125668449197861</v>
       </c>
       <c r="M13">
-        <v>0.62</v>
+        <v>0.9204000000000001</v>
       </c>
       <c r="N13">
-        <v>0.04428571428571428</v>
+        <v>0.02301</v>
       </c>
       <c r="O13">
-        <v>0.484375</v>
+        <v>0.5788679245283019</v>
       </c>
       <c r="P13">
-        <v>0.62</v>
+        <v>0.9204000000000001</v>
       </c>
       <c r="Q13">
-        <v>0.04428571428571428</v>
+        <v>0.02301</v>
       </c>
       <c r="R13">
-        <v>0.484375</v>
+        <v>0.5788679245283019</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1972,31 +2035,31 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>6.98</v>
+        <v>13.1</v>
       </c>
       <c r="V13">
-        <v>0.4985714285714286</v>
+        <v>0.3275</v>
       </c>
       <c r="W13">
-        <v>0.09770992366412214</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="X13">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y13">
-        <v>0.03455206993147203</v>
+        <v>0.0119738630250202</v>
       </c>
       <c r="Z13">
-        <v>0.7461669505962523</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.2260583475298126</v>
+        <v>0.2005170731707317</v>
       </c>
       <c r="AB13">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC13">
-        <v>0.1629004937971625</v>
+        <v>0.1374909361957519</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2008,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>-6.98</v>
+        <v>-13.1</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2017,28 +2080,22 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>-0.9943019943019944</v>
+        <v>-0.4869888475836431</v>
       </c>
       <c r="AK13">
-        <v>-1.070552147239264</v>
+        <v>-1.559523809523809</v>
       </c>
       <c r="AL13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
-      <c r="AO13">
-        <v>33.2</v>
-      </c>
       <c r="AP13">
-        <v>-4.058139534883721</v>
-      </c>
-      <c r="AQ13">
-        <v>33.2</v>
+        <v>-5.527426160337552</v>
       </c>
     </row>
     <row r="14">
@@ -2049,7 +2106,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Janata Insurance Company Limited (DSE:JANATAINS)</t>
+          <t>Prime Insurance Company Limited (DSE:PRIMEINSUR)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2058,79 +2115,76 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0383</v>
+        <v>-0.0478</v>
       </c>
       <c r="E14">
-        <v>0.348</v>
+        <v>-0.12</v>
       </c>
       <c r="G14">
-        <v>0.3345762711864407</v>
+        <v>0.2989130434782609</v>
       </c>
       <c r="H14">
-        <v>0.3345762711864407</v>
+        <v>0.2989130434782609</v>
       </c>
       <c r="I14">
-        <v>0.3301694915254237</v>
+        <v>0.4728260869565217</v>
       </c>
       <c r="J14">
-        <v>0.2032096982594816</v>
+        <v>0.2364130434782609</v>
       </c>
       <c r="K14">
-        <v>0.549</v>
+        <v>0.521</v>
       </c>
       <c r="L14">
-        <v>0.1861016949152542</v>
+        <v>0.1415760869565217</v>
       </c>
       <c r="M14">
-        <v>0.238</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.02426095820591233</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>0.4335154826958105</v>
+        <v>-0</v>
       </c>
       <c r="P14">
-        <v>0.238</v>
+        <v>-0</v>
       </c>
       <c r="Q14">
-        <v>0.02426095820591233</v>
+        <v>-0</v>
       </c>
       <c r="R14">
-        <v>0.4335154826958105</v>
+        <v>-0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
-        <v>3.99</v>
+        <v>6.55</v>
       </c>
       <c r="V14">
-        <v>0.4067278287461774</v>
+        <v>0.2763713080168776</v>
       </c>
       <c r="W14">
-        <v>0.08206278026905829</v>
+        <v>0.06594936708860759</v>
       </c>
       <c r="X14">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y14">
-        <v>0.01890492653640818</v>
+        <v>0.002923230113627773</v>
       </c>
       <c r="Z14">
-        <v>1.049822064056939</v>
+        <v>0.8288288288288288</v>
       </c>
       <c r="AA14">
-        <v>0.2133340248631569</v>
+        <v>0.1959459459459459</v>
       </c>
       <c r="AB14">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC14">
-        <v>0.1501761711305067</v>
+        <v>0.1329198089709661</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2142,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>-3.99</v>
+        <v>-6.55</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2151,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>-0.6855670103092784</v>
+        <v>-0.3819241982507289</v>
       </c>
       <c r="AK14">
-        <v>-1.347972972972973</v>
+        <v>-3.559782608695651</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2166,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>-3.836538461538462</v>
+        <v>-3.579234972677595</v>
       </c>
     </row>
     <row r="15">
@@ -2177,7 +2231,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pioneer Insurance Company Limited (DSE:PIONEERINS)</t>
+          <t>Central Insurance Company Limited (DSE:CENTRALINS)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2186,46 +2240,46 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.09949999999999999</v>
+        <v>0.0295</v>
       </c>
       <c r="E15">
-        <v>0.07820000000000001</v>
+        <v>0.08130000000000001</v>
       </c>
       <c r="G15">
-        <v>0.1782786885245902</v>
+        <v>0.422976501305483</v>
       </c>
       <c r="H15">
-        <v>0.1782786885245902</v>
+        <v>0.422976501305483</v>
       </c>
       <c r="I15">
-        <v>0.1901639344262295</v>
+        <v>0.391644908616188</v>
       </c>
       <c r="J15">
-        <v>0.1532106807931849</v>
+        <v>0.3170458784035808</v>
       </c>
       <c r="K15">
-        <v>3.69</v>
+        <v>1.19</v>
       </c>
       <c r="L15">
-        <v>0.1512295081967213</v>
+        <v>0.3107049608355091</v>
       </c>
       <c r="M15">
-        <v>1.24</v>
+        <v>0.227</v>
       </c>
       <c r="N15">
-        <v>0.04397163120567376</v>
+        <v>0.006236263736263736</v>
       </c>
       <c r="O15">
-        <v>0.3360433604336043</v>
+        <v>0.1907563025210084</v>
       </c>
       <c r="P15">
-        <v>1.24</v>
+        <v>0.227</v>
       </c>
       <c r="Q15">
-        <v>0.04397163120567376</v>
+        <v>0.006236263736263736</v>
       </c>
       <c r="R15">
-        <v>0.3360433604336043</v>
+        <v>0.1907563025210084</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2234,31 +2288,31 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>14.6</v>
+        <v>7.66</v>
       </c>
       <c r="V15">
-        <v>0.5177304964539007</v>
+        <v>0.2104395604395604</v>
       </c>
       <c r="W15">
-        <v>0.0984</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="X15">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y15">
-        <v>0.03524214626734989</v>
+        <v>0.02447386302502018</v>
       </c>
       <c r="Z15">
-        <v>0.9242424242424242</v>
+        <v>0.5811836115326252</v>
       </c>
       <c r="AA15">
-        <v>0.1416038110361255</v>
+        <v>0.1842618686321266</v>
       </c>
       <c r="AB15">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC15">
-        <v>0.07844595730347535</v>
+        <v>0.1212357316571468</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -2270,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>-14.6</v>
+        <v>-7.66</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2279,22 +2333,28 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>-1.073529411764706</v>
+        <v>-0.2665274878218511</v>
       </c>
       <c r="AK15">
-        <v>-0.5959183673469388</v>
+        <v>-1.153614457831325</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AN15">
         <v>0</v>
       </c>
+      <c r="AO15">
+        <v>44.11764705882353</v>
+      </c>
       <c r="AP15">
-        <v>-2.967479674796748</v>
+        <v>-4.670731707317073</v>
+      </c>
+      <c r="AQ15">
+        <v>44.11764705882353</v>
       </c>
     </row>
     <row r="16">
@@ -2314,46 +2374,46 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.0371</v>
+        <v>0.013</v>
       </c>
       <c r="E16">
-        <v>0.09519999999999999</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="G16">
-        <v>0.2636138613861386</v>
+        <v>0.3149606299212598</v>
       </c>
       <c r="H16">
-        <v>0.2636138613861386</v>
+        <v>0.3149606299212598</v>
       </c>
       <c r="I16">
-        <v>0.2537128712871287</v>
+        <v>0.2847769028871391</v>
       </c>
       <c r="J16">
-        <v>0.1827970297029703</v>
+        <v>0.2007874015748031</v>
       </c>
       <c r="K16">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="L16">
-        <v>0.1831683168316832</v>
+        <v>0.2007874015748032</v>
       </c>
       <c r="M16">
-        <v>0.714</v>
+        <v>0.711</v>
       </c>
       <c r="N16">
-        <v>0.0525</v>
+        <v>0.02346534653465347</v>
       </c>
       <c r="O16">
-        <v>0.4824324324324324</v>
+        <v>0.4647058823529411</v>
       </c>
       <c r="P16">
-        <v>0.714</v>
+        <v>0.711</v>
       </c>
       <c r="Q16">
-        <v>0.0525</v>
+        <v>0.02346534653465347</v>
       </c>
       <c r="R16">
-        <v>0.4824324324324324</v>
+        <v>0.4647058823529411</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2362,31 +2422,31 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.556</v>
+        <v>0.303</v>
       </c>
       <c r="V16">
-        <v>0.04088235294117647</v>
+        <v>0.01</v>
       </c>
       <c r="W16">
-        <v>0.1333333333333333</v>
+        <v>0.1296610169491525</v>
       </c>
       <c r="X16">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y16">
-        <v>0.07017547960068322</v>
+        <v>0.06663487997417271</v>
       </c>
       <c r="Z16">
-        <v>0.7480788815850384</v>
+        <v>0.6776947705442903</v>
       </c>
       <c r="AA16">
-        <v>0.1367465975372651</v>
+        <v>0.1360725720384205</v>
       </c>
       <c r="AB16">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC16">
-        <v>0.07358874380461496</v>
+        <v>0.07304643506344065</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -2398,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>-0.556</v>
+        <v>-0.303</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2407,10 +2467,10 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>-0.04262496166819994</v>
+        <v>-0.0101010101010101</v>
       </c>
       <c r="AK16">
-        <v>-0.04944859480611882</v>
+        <v>-0.02464015613564284</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2422,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>-0.2365957446808511</v>
+        <v>-0.12625</v>
       </c>
     </row>
     <row r="17">
@@ -2433,7 +2493,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Republic Insurance Company Limited (DSE:REPUBLIC)</t>
+          <t>Express Insurance Limited (DSE:EIL)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2442,70 +2502,73 @@
         </is>
       </c>
       <c r="G17">
-        <v>0.193916349809886</v>
+        <v>0.6366666666666666</v>
       </c>
       <c r="H17">
-        <v>0.193916349809886</v>
+        <v>0.6366666666666666</v>
       </c>
       <c r="I17">
-        <v>0.1901140684410647</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="J17">
-        <v>0.1418543433752559</v>
+        <v>0.6170370370370371</v>
       </c>
       <c r="K17">
-        <v>0.777</v>
+        <v>0.913</v>
       </c>
       <c r="L17">
-        <v>0.1477186311787072</v>
+        <v>0.6086666666666667</v>
       </c>
       <c r="M17">
-        <v>-0</v>
+        <v>0.461</v>
       </c>
       <c r="N17">
-        <v>-0</v>
+        <v>0.01793774319066148</v>
       </c>
       <c r="O17">
-        <v>-0</v>
+        <v>0.5049288061336255</v>
       </c>
       <c r="P17">
-        <v>-0</v>
+        <v>0.461</v>
       </c>
       <c r="Q17">
-        <v>-0</v>
+        <v>0.01793774319066148</v>
       </c>
       <c r="R17">
-        <v>-0</v>
+        <v>0.5049288061336255</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
       <c r="U17">
-        <v>0.438</v>
+        <v>10.8</v>
       </c>
       <c r="V17">
-        <v>0.03395348837209302</v>
+        <v>0.4202334630350195</v>
       </c>
       <c r="W17">
-        <v>0.1164917541229385</v>
+        <v>0.1050632911392405</v>
       </c>
       <c r="X17">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y17">
-        <v>0.05333390039028843</v>
+        <v>0.0420371541642607</v>
       </c>
       <c r="Z17">
-        <v>0.8526503485167775</v>
+        <v>0.171939477303989</v>
       </c>
       <c r="AA17">
-        <v>0.1209521553175306</v>
+        <v>0.1060930256253503</v>
       </c>
       <c r="AB17">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC17">
-        <v>0.05779430158488048</v>
+        <v>0.04306688865037044</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2517,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>-0.438</v>
+        <v>-10.8</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -2526,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>-0.03514684641309581</v>
+        <v>-0.7248322147651007</v>
       </c>
       <c r="AK17">
-        <v>-0.06132735928311397</v>
+        <v>-9.818181818181822</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2541,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>-0.3910714285714285</v>
+        <v>-8.307692307692308</v>
       </c>
     </row>
     <row r="18">
@@ -2552,7 +2615,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Eastland Insurance Company Limited (DSE:EASTLAND)</t>
+          <t>Northern Islami Insurance Ltd. (DSE:NORTHRNINS)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2561,46 +2624,46 @@
         </is>
       </c>
       <c r="D18">
-        <v>-0.00778</v>
+        <v>0.238</v>
       </c>
       <c r="E18">
-        <v>-0.116</v>
+        <v>0.0184</v>
       </c>
       <c r="G18">
-        <v>0.2276422764227642</v>
+        <v>0.152122641509434</v>
       </c>
       <c r="H18">
-        <v>0.2276422764227642</v>
+        <v>0.152122641509434</v>
       </c>
       <c r="I18">
-        <v>0.235388510556469</v>
+        <v>0.1090801886792453</v>
       </c>
       <c r="J18">
-        <v>0.2153064138516514</v>
+        <v>0.09968287689553712</v>
       </c>
       <c r="K18">
-        <v>1.31</v>
+        <v>0.839</v>
       </c>
       <c r="L18">
-        <v>0.1775067750677507</v>
+        <v>0.098938679245283</v>
       </c>
       <c r="M18">
-        <v>0.602</v>
+        <v>0.5124000000000001</v>
       </c>
       <c r="N18">
-        <v>0.02675555555555555</v>
+        <v>0.02143933054393306</v>
       </c>
       <c r="O18">
-        <v>0.4595419847328244</v>
+        <v>0.6107270560190704</v>
       </c>
       <c r="P18">
-        <v>0.602</v>
+        <v>0.5124000000000001</v>
       </c>
       <c r="Q18">
-        <v>0.02675555555555555</v>
+        <v>0.02143933054393306</v>
       </c>
       <c r="R18">
-        <v>0.4595419847328244</v>
+        <v>0.6107270560190704</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2609,73 +2672,67 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>5.63</v>
+        <v>7.23</v>
       </c>
       <c r="V18">
-        <v>0.2502222222222222</v>
+        <v>0.3025104602510461</v>
       </c>
       <c r="W18">
-        <v>0.06822916666666667</v>
+        <v>0.06933884297520661</v>
       </c>
       <c r="X18">
-        <v>0.06338374429348423</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y18">
-        <v>0.004845422373182445</v>
+        <v>0.006312706000226792</v>
       </c>
       <c r="Z18">
-        <v>0.5373461407074567</v>
+        <v>1.015568862275449</v>
       </c>
       <c r="AA18">
-        <v>0.1156940705527473</v>
+        <v>0.1012348258771443</v>
       </c>
       <c r="AB18">
-        <v>0.06328056714576362</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC18">
-        <v>0.05241350340698372</v>
+        <v>0.03820868890216449</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>0.1541639604662939</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.1541639604662939</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>-5.475836039533706</v>
+        <v>-7.23</v>
       </c>
       <c r="AH18">
-        <v>0.006805104824672627</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>0.00788394537235013</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>-0.3216508048353949</v>
+        <v>-0.4337132573485304</v>
       </c>
       <c r="AK18">
-        <v>-0.3932613875476321</v>
+        <v>-2.211009174311927</v>
       </c>
       <c r="AL18">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>0.275</v>
+        <v>0</v>
       </c>
       <c r="AN18">
         <v>0</v>
       </c>
-      <c r="AO18">
-        <v>6.181818181818181</v>
-      </c>
       <c r="AP18">
-        <v>-3.028670375848289</v>
-      </c>
-      <c r="AQ18">
-        <v>6.181818181818181</v>
+        <v>-6.513513513513513</v>
       </c>
     </row>
     <row r="19">
@@ -2686,7 +2743,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Global Insurance Limited (DSE:GLOBALINS)</t>
+          <t>Eastland Insurance Company Limited (DSE:EASTLAND)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2695,118 +2752,121 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.16</v>
+        <v>-0.0622</v>
       </c>
       <c r="E19">
-        <v>-0.00635</v>
+        <v>-0.0269</v>
       </c>
       <c r="G19">
-        <v>0.145771144278607</v>
+        <v>0.3563432835820895</v>
       </c>
       <c r="H19">
-        <v>0.145771144278607</v>
+        <v>0.3563432835820895</v>
       </c>
       <c r="I19">
-        <v>0.158955223880597</v>
+        <v>0.292910447761194</v>
       </c>
       <c r="J19">
-        <v>0.1008391835289954</v>
+        <v>0.2460927942255933</v>
       </c>
       <c r="K19">
-        <v>0.321</v>
+        <v>1.03</v>
       </c>
       <c r="L19">
-        <v>0.07985074626865672</v>
+        <v>0.1921641791044776</v>
       </c>
       <c r="M19">
-        <v>-0</v>
+        <v>0.318</v>
       </c>
       <c r="N19">
-        <v>-0</v>
+        <v>0.009754601226993865</v>
       </c>
       <c r="O19">
-        <v>-0</v>
+        <v>0.3087378640776699</v>
       </c>
       <c r="P19">
-        <v>-0</v>
+        <v>0.318</v>
       </c>
       <c r="Q19">
-        <v>-0</v>
+        <v>0.009754601226993865</v>
       </c>
       <c r="R19">
-        <v>-0</v>
+        <v>0.3087378640776699</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
       <c r="U19">
-        <v>3.47</v>
+        <v>6.54</v>
       </c>
       <c r="V19">
-        <v>0.3533604887983707</v>
+        <v>0.2006134969325153</v>
       </c>
       <c r="W19">
-        <v>0.06196911196911197</v>
+        <v>0.05175879396984925</v>
       </c>
       <c r="X19">
-        <v>0.06735444109256453</v>
+        <v>0.06773541416534808</v>
       </c>
       <c r="Y19">
-        <v>-0.005385329123452555</v>
+        <v>-0.01597662019549882</v>
       </c>
       <c r="Z19">
-        <v>1.168604651162791</v>
+        <v>0.3735191637630663</v>
       </c>
       <c r="AA19">
-        <v>0.1178411388914423</v>
+        <v>0.09192037470725997</v>
       </c>
       <c r="AB19">
-        <v>0.06551586558390875</v>
+        <v>0.06465082861182522</v>
       </c>
       <c r="AC19">
-        <v>0.0523252733075335</v>
+        <v>0.02726954609543475</v>
       </c>
       <c r="AD19">
-        <v>1.25</v>
+        <v>3.81</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>1.25</v>
+        <v>3.81</v>
       </c>
       <c r="AG19">
-        <v>-2.22</v>
+        <v>-2.73</v>
       </c>
       <c r="AH19">
-        <v>0.1129177958446251</v>
+        <v>0.1046415819829717</v>
       </c>
       <c r="AI19">
-        <v>0.187125748502994</v>
+        <v>0.1655801825293351</v>
       </c>
       <c r="AJ19">
-        <v>-0.2921052631578948</v>
+        <v>-0.09139604954804151</v>
       </c>
       <c r="AK19">
-        <v>-0.6915887850467292</v>
+        <v>-0.1657559198542805</v>
       </c>
       <c r="AL19">
-        <v>0.113</v>
+        <v>0.343</v>
       </c>
       <c r="AM19">
-        <v>0.113</v>
+        <v>0.343</v>
       </c>
       <c r="AN19">
-        <v>1.726519337016575</v>
+        <v>2.366459627329192</v>
       </c>
       <c r="AO19">
-        <v>5.654867256637168</v>
+        <v>4.577259475218659</v>
       </c>
       <c r="AP19">
-        <v>-3.066298342541437</v>
+        <v>-1.695652173913043</v>
       </c>
       <c r="AQ19">
-        <v>5.654867256637168</v>
+        <v>4.577259475218659</v>
       </c>
     </row>
     <row r="20">
@@ -2817,7 +2877,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Continental Insurance Limited (DSE:CONTININS)</t>
+          <t>City General Insurance Company Limited (DSE:CITYGENINS)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2826,46 +2886,46 @@
         </is>
       </c>
       <c r="D20">
-        <v>-0.00273</v>
+        <v>0.031</v>
       </c>
       <c r="E20">
-        <v>0.0308</v>
+        <v>-0.079</v>
       </c>
       <c r="G20">
-        <v>0.3125</v>
+        <v>0.3052391799544419</v>
       </c>
       <c r="H20">
-        <v>0.3125</v>
+        <v>0.3052391799544419</v>
       </c>
       <c r="I20">
-        <v>0.07314814814814814</v>
+        <v>0.2710706150341686</v>
       </c>
       <c r="J20">
-        <v>0.07314814814814814</v>
+        <v>0.1728075170842825</v>
       </c>
       <c r="K20">
-        <v>0.754</v>
+        <v>0.66</v>
       </c>
       <c r="L20">
-        <v>0.174537037037037</v>
+        <v>0.1503416856492027</v>
       </c>
       <c r="M20">
-        <v>0.339</v>
+        <v>0.4092</v>
       </c>
       <c r="N20">
-        <v>0.03168224299065421</v>
+        <v>0.01690909090909091</v>
       </c>
       <c r="O20">
-        <v>0.4496021220159152</v>
+        <v>0.62</v>
       </c>
       <c r="P20">
-        <v>0.339</v>
+        <v>0.4092</v>
       </c>
       <c r="Q20">
-        <v>0.03168224299065421</v>
+        <v>0.01690909090909091</v>
       </c>
       <c r="R20">
-        <v>0.4496021220159152</v>
+        <v>0.62</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2874,31 +2934,31 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>6.96</v>
+        <v>6.64</v>
       </c>
       <c r="V20">
-        <v>0.6504672897196262</v>
+        <v>0.2743801652892562</v>
       </c>
       <c r="W20">
-        <v>0.0900836320191159</v>
+        <v>0.05546218487394958</v>
       </c>
       <c r="X20">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y20">
-        <v>0.02692577828646579</v>
+        <v>-0.007563952101030232</v>
       </c>
       <c r="Z20">
-        <v>1.542857142857144</v>
+        <v>0.3746373101211811</v>
       </c>
       <c r="AA20">
-        <v>0.1128571428571429</v>
+        <v>0.06474014336917562</v>
       </c>
       <c r="AB20">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC20">
-        <v>0.0496992891244928</v>
+        <v>0.001714006394195805</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -2910,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>-6.96</v>
+        <v>-6.64</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -2919,28 +2979,28 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>-1.86096256684492</v>
+        <v>-0.3781321184510251</v>
       </c>
       <c r="AK20">
-        <v>-3.462686567164178</v>
+        <v>-0.9679300291545189</v>
       </c>
       <c r="AL20">
-        <v>0.177</v>
+        <v>0.003</v>
       </c>
       <c r="AM20">
-        <v>0.177</v>
+        <v>0.003</v>
       </c>
       <c r="AN20">
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1.785310734463277</v>
+        <v>396.6666666666666</v>
       </c>
       <c r="AP20">
-        <v>-16.57142857142857</v>
+        <v>-5.354838709677419</v>
       </c>
       <c r="AQ20">
-        <v>1.785310734463277</v>
+        <v>396.6666666666666</v>
       </c>
     </row>
     <row r="21">
@@ -2951,7 +3011,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Prime Insurance Company Limited (DSE:PRIMEINSUR)</t>
+          <t>Green Delta Insurance Company Limited (DSE:GREENDELT)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2960,46 +3020,46 @@
         </is>
       </c>
       <c r="D21">
-        <v>-0.0038</v>
+        <v>0.05889999999999999</v>
       </c>
       <c r="E21">
-        <v>-0.06179999999999999</v>
+        <v>0.175</v>
       </c>
       <c r="G21">
-        <v>0.2947658402203857</v>
+        <v>0.166</v>
       </c>
       <c r="H21">
-        <v>0.2947658402203857</v>
+        <v>0.166</v>
       </c>
       <c r="I21">
-        <v>0.3195592286501377</v>
+        <v>0.2396666666666667</v>
       </c>
       <c r="J21">
-        <v>0.1889807162534435</v>
+        <v>0.1644457429048414</v>
       </c>
       <c r="K21">
-        <v>0.6840000000000001</v>
+        <v>4.11</v>
       </c>
       <c r="L21">
-        <v>0.1884297520661157</v>
+        <v>0.137</v>
       </c>
       <c r="M21">
-        <v>0.484</v>
+        <v>1.73</v>
       </c>
       <c r="N21">
-        <v>0.03872</v>
+        <v>0.02551622418879056</v>
       </c>
       <c r="O21">
-        <v>0.7076023391812865</v>
+        <v>0.4209245742092457</v>
       </c>
       <c r="P21">
-        <v>0.484</v>
+        <v>1.73</v>
       </c>
       <c r="Q21">
-        <v>0.03872</v>
+        <v>0.02551622418879056</v>
       </c>
       <c r="R21">
-        <v>0.7076023391812865</v>
+        <v>0.4209245742092457</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3008,31 +3068,31 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>3.46</v>
+        <v>16.3</v>
       </c>
       <c r="V21">
-        <v>0.2768</v>
+        <v>0.2404129793510325</v>
       </c>
       <c r="W21">
-        <v>0.08848641655886158</v>
+        <v>0.05105590062111802</v>
       </c>
       <c r="X21">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y21">
-        <v>0.02532856282621147</v>
+        <v>-0.0119702363538618</v>
       </c>
       <c r="Z21">
-        <v>0.5902439024390244</v>
+        <v>0.3420752565564424</v>
       </c>
       <c r="AA21">
-        <v>0.1115447154471545</v>
+        <v>0.05625281969378841</v>
       </c>
       <c r="AB21">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC21">
-        <v>0.04838686171450435</v>
+        <v>-0.006773317281191404</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -3044,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>-3.46</v>
+        <v>-16.3</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3053,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>-0.3827433628318584</v>
+        <v>-0.3165048543689321</v>
       </c>
       <c r="AK21">
-        <v>-0.7792792792792792</v>
+        <v>-0.2772108843537415</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3068,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>-2.703125</v>
+        <v>-2.11963589076723</v>
       </c>
     </row>
     <row r="22">
@@ -3079,7 +3139,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Northern General Insurance Company Limited (DSE:NORTHRNINS)</t>
+          <t>Provati Insurance Company Limited (DSE:PROVATIINS)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3088,46 +3148,43 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.08</v>
-      </c>
-      <c r="E22">
-        <v>0.006790000000000001</v>
+        <v>0.197</v>
       </c>
       <c r="G22">
-        <v>0.3706666666666666</v>
+        <v>-0.05910891089108911</v>
       </c>
       <c r="H22">
-        <v>0.3706666666666666</v>
+        <v>-0.05910891089108911</v>
       </c>
       <c r="I22">
-        <v>0.2789297694454413</v>
+        <v>-0.06227722772277228</v>
       </c>
       <c r="J22">
-        <v>0.1938699981690097</v>
+        <v>-0.06227722772277228</v>
       </c>
       <c r="K22">
-        <v>0.707</v>
+        <v>-0.884</v>
       </c>
       <c r="L22">
-        <v>0.1885333333333333</v>
+        <v>-0.08752475247524753</v>
       </c>
       <c r="M22">
-        <v>0.497</v>
+        <v>0.4158</v>
       </c>
       <c r="N22">
-        <v>0.03913385826771654</v>
+        <v>0.0140472972972973</v>
       </c>
       <c r="O22">
-        <v>0.702970297029703</v>
+        <v>-0.4703619909502262</v>
       </c>
       <c r="P22">
-        <v>0.497</v>
+        <v>0.4158</v>
       </c>
       <c r="Q22">
-        <v>0.03913385826771654</v>
+        <v>0.0140472972972973</v>
       </c>
       <c r="R22">
-        <v>0.702970297029703</v>
+        <v>-0.4703619909502262</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3136,55 +3193,55 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>3.87</v>
+        <v>7.72</v>
       </c>
       <c r="V22">
-        <v>0.3047244094488189</v>
+        <v>0.2608108108108108</v>
       </c>
       <c r="W22">
-        <v>0.06864077669902911</v>
+        <v>-0.1394321766561514</v>
       </c>
       <c r="X22">
-        <v>0.06323590528795452</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y22">
-        <v>0.005404871411074597</v>
+        <v>-0.2024583136311313</v>
       </c>
       <c r="Z22">
-        <v>0.5681760655801118</v>
+        <v>7.481481481481484</v>
       </c>
       <c r="AA22">
-        <v>0.1101522927936914</v>
+        <v>-0.4659259259259261</v>
       </c>
       <c r="AB22">
-        <v>0.06320044436344817</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC22">
-        <v>0.04695184843024325</v>
+        <v>-0.5289520629009059</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.03006682289797531</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.03006682289797531</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>-3.839933177102025</v>
+        <v>-7.72</v>
       </c>
       <c r="AH22">
-        <v>0.002361874710971129</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>0.002882706641147031</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <v>-0.4333977670662815</v>
+        <v>-0.3528336380255941</v>
       </c>
       <c r="AK22">
-        <v>-0.5853497046247611</v>
+        <v>17.15555555555555</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3193,760 +3250,10 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AP22">
-        <v>-3.067039278835483</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Phoenix Insurance Company Limited (DSE:PHENIXINS)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>0.0199</v>
-      </c>
-      <c r="E23">
-        <v>-0.00395</v>
-      </c>
-      <c r="G23">
-        <v>0.2529239766081872</v>
-      </c>
-      <c r="H23">
-        <v>0.2529239766081872</v>
-      </c>
-      <c r="I23">
-        <v>0.2236842105263158</v>
-      </c>
-      <c r="J23">
-        <v>0.1848262483130904</v>
-      </c>
-      <c r="K23">
-        <v>1.29</v>
-      </c>
-      <c r="L23">
-        <v>0.1885964912280702</v>
-      </c>
-      <c r="M23">
-        <v>0.766</v>
-      </c>
-      <c r="N23">
-        <v>0.05984375</v>
-      </c>
-      <c r="O23">
-        <v>0.5937984496124031</v>
-      </c>
-      <c r="P23">
-        <v>0.766</v>
-      </c>
-      <c r="Q23">
-        <v>0.05984375</v>
-      </c>
-      <c r="R23">
-        <v>0.5937984496124031</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>5.76</v>
-      </c>
-      <c r="V23">
-        <v>0.45</v>
-      </c>
-      <c r="W23">
-        <v>0.06683937823834196</v>
-      </c>
-      <c r="X23">
-        <v>0.06315785373265011</v>
-      </c>
-      <c r="Y23">
-        <v>0.003681524505691855</v>
-      </c>
-      <c r="Z23">
-        <v>0.509307520476545</v>
-      </c>
-      <c r="AA23">
-        <v>0.09413339824732229</v>
-      </c>
-      <c r="AB23">
-        <v>0.06315785373265011</v>
-      </c>
-      <c r="AC23">
-        <v>0.03097554451467219</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>-5.76</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>-0.818181818181818</v>
-      </c>
-      <c r="AK23">
-        <v>-0.4705882352941176</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Asia Insurance Limited (DSE:ASIAINS)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>0.115</v>
-      </c>
-      <c r="E24">
-        <v>-0.0565</v>
-      </c>
-      <c r="G24">
-        <v>0.2323580034423408</v>
-      </c>
-      <c r="H24">
-        <v>0.2323580034423408</v>
-      </c>
-      <c r="I24">
-        <v>0.1876075731497419</v>
-      </c>
-      <c r="J24">
-        <v>0.1344234079173839</v>
-      </c>
-      <c r="K24">
-        <v>0.776</v>
-      </c>
-      <c r="L24">
-        <v>0.1335628227194492</v>
-      </c>
-      <c r="M24">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="N24">
-        <v>0.0402158273381295</v>
-      </c>
-      <c r="O24">
-        <v>0.720360824742268</v>
-      </c>
-      <c r="P24">
-        <v>0.5590000000000001</v>
-      </c>
-      <c r="Q24">
-        <v>0.0402158273381295</v>
-      </c>
-      <c r="R24">
-        <v>0.720360824742268</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>1.14</v>
-      </c>
-      <c r="V24">
-        <v>0.08201438848920863</v>
-      </c>
-      <c r="W24">
-        <v>0.07185185185185185</v>
-      </c>
-      <c r="X24">
-        <v>0.06317208469249162</v>
-      </c>
-      <c r="Y24">
-        <v>0.008679767159360224</v>
-      </c>
-      <c r="Z24">
-        <v>0.5686044235662556</v>
-      </c>
-      <c r="AA24">
-        <v>0.07643374437267568</v>
-      </c>
-      <c r="AB24">
-        <v>0.06316686389500654</v>
-      </c>
-      <c r="AC24">
-        <v>0.01326688047766914</v>
-      </c>
-      <c r="AD24">
-        <v>0.006</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0.006</v>
-      </c>
-      <c r="AG24">
-        <v>-1.134</v>
-      </c>
-      <c r="AH24">
-        <v>0.0004314684308931396</v>
-      </c>
-      <c r="AI24">
-        <v>0.0005821851348728896</v>
-      </c>
-      <c r="AJ24">
-        <v>-0.08882970390098699</v>
-      </c>
-      <c r="AK24">
-        <v>-0.1237180885882609</v>
-      </c>
-      <c r="AL24">
-        <v>0.003</v>
-      </c>
-      <c r="AM24">
-        <v>0.003</v>
-      </c>
-      <c r="AO24">
-        <v>363.3333333333334</v>
-      </c>
-      <c r="AQ24">
-        <v>363.3333333333334</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Federal Insurance Company Limited (DSE:FEDERALINS)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>-0.0263</v>
-      </c>
-      <c r="E25">
-        <v>-0.106</v>
-      </c>
-      <c r="G25">
-        <v>0.2</v>
-      </c>
-      <c r="H25">
-        <v>0.2</v>
-      </c>
-      <c r="I25">
-        <v>0.1879350348027843</v>
-      </c>
-      <c r="J25">
-        <v>0.1212484095501834</v>
-      </c>
-      <c r="K25">
-        <v>0.5</v>
-      </c>
-      <c r="L25">
-        <v>0.1160092807424594</v>
-      </c>
-      <c r="M25">
-        <v>-0</v>
-      </c>
-      <c r="N25">
-        <v>-0</v>
-      </c>
-      <c r="O25">
-        <v>-0</v>
-      </c>
-      <c r="P25">
-        <v>-0</v>
-      </c>
-      <c r="Q25">
-        <v>-0</v>
-      </c>
-      <c r="R25">
-        <v>-0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>2.72</v>
-      </c>
-      <c r="V25">
-        <v>0.2428571428571429</v>
-      </c>
-      <c r="W25">
-        <v>0.0586166471277843</v>
-      </c>
-      <c r="X25">
-        <v>0.06722003039455125</v>
-      </c>
-      <c r="Y25">
-        <v>-0.008603383266766955</v>
-      </c>
-      <c r="Z25">
-        <v>0.5380774032459426</v>
-      </c>
-      <c r="AA25">
-        <v>0.06524102935846321</v>
-      </c>
-      <c r="AB25">
-        <v>0.06513598752259844</v>
-      </c>
-      <c r="AC25">
-        <v>0.0001050418358647665</v>
-      </c>
-      <c r="AD25">
-        <v>1.38</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>1.38</v>
-      </c>
-      <c r="AG25">
-        <v>-1.34</v>
-      </c>
-      <c r="AH25">
-        <v>0.109697933227345</v>
-      </c>
-      <c r="AI25">
-        <v>0.1343719571567673</v>
-      </c>
-      <c r="AJ25">
-        <v>-0.1359026369168357</v>
-      </c>
-      <c r="AK25">
-        <v>-0.1774834437086093</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>1.399594320486815</v>
-      </c>
-      <c r="AP25">
-        <v>-1.359026369168357</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Green Delta Insurance Company Limited (DSE:GREENDELT)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>0.0704</v>
-      </c>
-      <c r="E26">
-        <v>0.172</v>
-      </c>
-      <c r="G26">
-        <v>0.1783606557377049</v>
-      </c>
-      <c r="H26">
-        <v>0.1783606557377049</v>
-      </c>
-      <c r="I26">
-        <v>0.1485245901639344</v>
-      </c>
-      <c r="J26">
-        <v>0.1105970064148254</v>
-      </c>
-      <c r="K26">
-        <v>2.57</v>
-      </c>
-      <c r="L26">
-        <v>0.08426229508196721</v>
-      </c>
-      <c r="M26">
-        <v>1.12</v>
-      </c>
-      <c r="N26">
-        <v>0.02051282051282051</v>
-      </c>
-      <c r="O26">
-        <v>0.4357976653696499</v>
-      </c>
-      <c r="P26">
-        <v>1.12</v>
-      </c>
-      <c r="Q26">
-        <v>0.02051282051282051</v>
-      </c>
-      <c r="R26">
-        <v>0.4357976653696499</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>14.4</v>
-      </c>
-      <c r="V26">
-        <v>0.2637362637362637</v>
-      </c>
-      <c r="W26">
-        <v>0.03261421319796954</v>
-      </c>
-      <c r="X26">
-        <v>0.07620029385112871</v>
-      </c>
-      <c r="Y26">
-        <v>-0.04358608065315917</v>
-      </c>
-      <c r="Z26">
-        <v>0.3680019305019305</v>
-      </c>
-      <c r="AA26">
-        <v>0.04069991186839014</v>
-      </c>
-      <c r="AB26">
-        <v>0.06907731756234203</v>
-      </c>
-      <c r="AC26">
-        <v>-0.0283774056939519</v>
-      </c>
-      <c r="AD26">
-        <v>21.6</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>21.6</v>
-      </c>
-      <c r="AG26">
-        <v>7.200000000000001</v>
-      </c>
-      <c r="AH26">
-        <v>0.2834645669291339</v>
-      </c>
-      <c r="AI26">
-        <v>0.2115572967678747</v>
-      </c>
-      <c r="AJ26">
-        <v>0.116504854368932</v>
-      </c>
-      <c r="AK26">
-        <v>0.08209806157354618</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>4.194174757281553</v>
-      </c>
-      <c r="AP26">
-        <v>1.398058252427185</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Standard Insurance Limited (DSE:STANDARINS)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>0.0272</v>
-      </c>
-      <c r="E27">
-        <v>0.0384</v>
-      </c>
-      <c r="G27">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="H27">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="I27">
-        <v>0.2650103519668737</v>
-      </c>
-      <c r="J27">
-        <v>0.1942729734034082</v>
-      </c>
-      <c r="K27">
-        <v>0.95</v>
-      </c>
-      <c r="L27">
-        <v>0.1966873706004141</v>
-      </c>
-      <c r="M27">
-        <v>-0</v>
-      </c>
-      <c r="N27">
-        <v>-0</v>
-      </c>
-      <c r="O27">
-        <v>-0</v>
-      </c>
-      <c r="P27">
-        <v>-0</v>
-      </c>
-      <c r="Q27">
-        <v>-0</v>
-      </c>
-      <c r="R27">
-        <v>-0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>10.5</v>
-      </c>
-      <c r="V27">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="W27">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="X27">
-        <v>0.06315785373265011</v>
-      </c>
-      <c r="Y27">
-        <v>0.06504727447247809</v>
-      </c>
-      <c r="Z27">
-        <v>-2.981481481481483</v>
-      </c>
-      <c r="AA27">
-        <v>-0.5792212725546062</v>
-      </c>
-      <c r="AB27">
-        <v>0.06315785373265011</v>
-      </c>
-      <c r="AC27">
-        <v>-0.6423791262872564</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>-10.5</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>-1.25</v>
-      </c>
-      <c r="AK27">
-        <v>4.92957746478873</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>-7.894736842105263</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Bangladesh National Insurance Company Limited (DSE:BNICL)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Insurance (Prop/Cas.)</t>
-        </is>
-      </c>
-      <c r="G28">
-        <v>0.2693661971830986</v>
-      </c>
-      <c r="H28">
-        <v>0.2693661971830986</v>
-      </c>
-      <c r="I28">
-        <v>0.2235915492957747</v>
-      </c>
-      <c r="J28">
-        <v>0.173673435964625</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.176056338028169</v>
-      </c>
-      <c r="M28">
-        <v>0.524</v>
-      </c>
-      <c r="N28">
-        <v>0.04</v>
-      </c>
-      <c r="O28">
-        <v>0.524</v>
-      </c>
-      <c r="P28">
-        <v>0.524</v>
-      </c>
-      <c r="Q28">
-        <v>0.04</v>
-      </c>
-      <c r="R28">
-        <v>0.524</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="V28">
-        <v>0.7412213740458016</v>
-      </c>
-      <c r="W28">
-        <v>0.1053740779768177</v>
-      </c>
-      <c r="X28">
-        <v>0.06315785373265011</v>
-      </c>
-      <c r="Y28">
-        <v>0.0422162242441676</v>
-      </c>
-      <c r="Z28">
-        <v>-28.4000000000001</v>
-      </c>
-      <c r="AA28">
-        <v>-4.932325581395366</v>
-      </c>
-      <c r="AB28">
-        <v>0.06315785373265011</v>
-      </c>
-      <c r="AC28">
-        <v>-4.995483435128016</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>-9.710000000000001</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>-2.864306784660768</v>
-      </c>
-      <c r="AK28">
-        <v>-42.21739130434808</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>-6.886524822695036</v>
+        <v>14.7047619047619</v>
       </c>
     </row>
   </sheetData>
